--- a/students.xlsx
+++ b/students.xlsx
@@ -452,7 +452,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fefnD0Xn</t>
+          <t>A5lOBV7T</t>
         </is>
       </c>
     </row>
@@ -463,7 +463,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>L2jiyOrG</t>
+          <t>H4hNIJSF</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sxY9wYOV</t>
+          <t>db0qEs9a</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q825T51q</t>
+          <t>hKLrR2hF</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RvWNmdn5</t>
+          <t>nKhsvnBF</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NVNDiT5r</t>
+          <t>u8R2PxqB</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cLg4lMas</t>
+          <t>fkeXhJlw</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6RkYAxaw</t>
+          <t>BrWGCLpK</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>bUEUyaYR</t>
+          <t>qcaQINrW</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>lvJu4phZ</t>
+          <t>QdmOdFda</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SCtfHJo6</t>
+          <t>O3zNjpXi</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rzi4IopU</t>
+          <t>DVtSLY9F</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ThI5Lb4q</t>
+          <t>3MSXcSID</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>usipyB4U</t>
+          <t>Y2JxChZ4</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>KVlXaScT</t>
+          <t>KpdBd6jJ</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WkOZ5TOs</t>
+          <t>GmQhJzUe</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ATAzb5EM</t>
+          <t>hSyHhzZ8</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NT03kmSB</t>
+          <t>BETaUK55</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>xRmOkDZL</t>
+          <t>bWtP07R0</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>36ewcD8W</t>
+          <t>65hCPVjC</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DuaJLDg2</t>
+          <t>MoBlZlpT</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RzrvgNBp</t>
+          <t>YT49G1Ir</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sGiAXqNf</t>
+          <t>8J3pxGpI</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JOnUZTbE</t>
+          <t>Pc52jaRl</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VuMtggXx</t>
+          <t>osJnjQeK</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0NGq9WGk</t>
+          <t>RE6ic2X2</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>UrJnAKSC</t>
+          <t>fAyRZ824</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>t4SDN8MG</t>
+          <t>IH5gRe6V</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ZHxTxsGZ</t>
+          <t>1z13ErcB</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>742ClhVx</t>
+          <t>hGKLFQ1l</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Eh0pCGtt</t>
+          <t>1qFHRAgH</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4cv6hKtS</t>
+          <t>XcjqeOYG</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4xXCfzRg</t>
+          <t>gI7FgIth</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3bYv4ySR</t>
+          <t>IDwS0Dmi</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>iX147as0</t>
+          <t>Axqkf5yA</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>yML5ojKU</t>
+          <t>Kl6reGe8</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RfREbMBH</t>
+          <t>VRgnp4Lh</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>hxSHJgvB</t>
+          <t>CoLbsyNv</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>t14nYlx3</t>
+          <t>9Tivg1ea</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bf0UDKOX</t>
+          <t>JJQZAEsU</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2d98dA5c</t>
+          <t>DvyltMUR</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>kBRQqn50</t>
+          <t>wvWWtiME</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5c8hvK7g</t>
+          <t>lh4A950N</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>mk6Sj6pg</t>
+          <t>j0VQNDnd</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SRmWbe8v</t>
+          <t>UdCDAlOa</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EIwW8tWW</t>
+          <t>9HZW9hih</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>fPdUdmPL</t>
+          <t>5L4F8Xu0</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>q6YO4g7d</t>
+          <t>5aC1IDjk</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>g6g6bh3L</t>
+          <t>qyAtkQF5</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>8gFQH4XI</t>
+          <t>JamrNi20</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>hdbYUI2j</t>
+          <t>VcEV620o</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>riekRstK</t>
+          <t>Xowj19RS</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>QIfIg2wy</t>
+          <t>Z3bYNXzS</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HZeR4tRt</t>
+          <t>DyU64zJ3</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>6VtIPKvv</t>
+          <t>zRfyLIUf</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>hxDZjLND</t>
+          <t>eppAZt03</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>jnAeNED3</t>
+          <t>t9AE3iYf</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>aw3Mqx2Z</t>
+          <t>LyjfplDx</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>q5hVZhzP</t>
+          <t>1qHd4T6p</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>RuaIvqRY</t>
+          <t>g6yBxlud</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>gwjyKczh</t>
+          <t>iyZB5Pwx</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>6IJQCoA8</t>
+          <t>H1qAgtKJ</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>rg3DKMRX</t>
+          <t>mkppu3rv</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ro3TG9sK</t>
+          <t>1RggNc4K</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>sy3dRyRq</t>
+          <t>h52zDGJn</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AwPwoBKp</t>
+          <t>v6aIvq53</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>W3ThJkP8</t>
+          <t>6yVU9tqM</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5ClHQvBi</t>
+          <t>m8bWSDwl</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>fMsThPkZ</t>
+          <t>ZMITF44G</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NexeOlzq</t>
+          <t>j6b6ZIpy</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MNrxGCNq</t>
+          <t>jUfhcJHN</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>hg8Ysk3i</t>
+          <t>grIKB0EX</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>X5KnXXdE</t>
+          <t>IL2BW3JB</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>YpN6Glox</t>
+          <t>LMTJLXPD</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>AbAA3zz9</t>
+          <t>V5Uj9J55</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>RVpMFoxY</t>
+          <t>2FIlsIeB</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>I5fmfhBr</t>
+          <t>fhGPvIH7</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>fPe9Kq0Y</t>
+          <t>5JSwPrpZ</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3t1nO6Ci</t>
+          <t>hhlTPMVZ</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>4KfK4pfZ</t>
+          <t>uPnkgti5</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2zwmjVxp</t>
+          <t>I1pDCQJw</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>zhUjBQGN</t>
+          <t>Th0gk6xs</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AUVc1Zws</t>
+          <t>harFV2KO</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>98J7xrCy</t>
+          <t>LJNhhMKH</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>IUjx1rX1</t>
+          <t>GXGpD8sR</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>IY0dIxme</t>
+          <t>uPd6afNF</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DjY5XYIu</t>
+          <t>CnZluXKp</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>nRa49MLQ</t>
+          <t>ssIB0IQR</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>joTPr7zQ</t>
+          <t>38xQwBNF</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>OuVZkD9W</t>
+          <t>0z9Zls7e</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>S9gWBTle</t>
+          <t>VUiTzIN9</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>6esKavEV</t>
+          <t>KU4eAHBX</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>RSxhmYU6</t>
+          <t>Ia0S3oTI</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>abcfFH32</t>
+          <t>vRPeDO5v</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>i31wJNpf</t>
+          <t>eqg7SWIN</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CU5jArxT</t>
+          <t>iMYmP4lE</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>k2dOk9DU</t>
+          <t>CCZDB51Q</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>w7YRU1w0</t>
+          <t>WAQYedO2</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ooVGp9sA</t>
+          <t>vK2fv6Of</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>WDKbkk3g</t>
+          <t>pPFFUqIs</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>OtcGocN7</t>
+          <t>EKXQRBiE</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>xuDwhxi1</t>
+          <t>c19npqPU</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>cExGynM5</t>
+          <t>Zr1VaV87</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>q5x1yxVF</t>
+          <t>dOGTvV9B</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ooIDwZ8W</t>
+          <t>fg85qsND</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>WnpDBGJZ</t>
+          <t>njU1Cl3h</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>YeL4ZPgp</t>
+          <t>UU9KDiRm</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>AQXEi5JD</t>
+          <t>jH8ocKK8</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>cOJXT4Mf</t>
+          <t>sAf92ZRG</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>JGcssEQa</t>
+          <t>S1mX9pD4</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>gKZts8sr</t>
+          <t>yBzGeqKC</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>FUo5KISn</t>
+          <t>bSNbqal5</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>eRPJlxdW</t>
+          <t>ESRlqYfd</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>395a25jE</t>
+          <t>NVPazhtw</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>30ufecJx</t>
+          <t>ruKFTNEs</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DPcneL6C</t>
+          <t>GxSzIXgo</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>82AdAaHq</t>
+          <t>P4SaRSoH</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>lPxrqWy7</t>
+          <t>8ZY5bEbi</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>rcWRHZbN</t>
+          <t>SHUqyrOA</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>lzbMUTnf</t>
+          <t>jaEStrLP</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
-          <t>E00JVHqm</t>
+          <t>kst4ijGG</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ayCPJ6qL</t>
+          <t>tTXv0H7P</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>sykenByT</t>
+          <t>6DWNneIR</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ap5uEBMv</t>
+          <t>hVG9kMjI</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>8WFqKQoD</t>
+          <t>KbzRPgFx</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>s7FpJOTA</t>
+          <t>3v0LETdL</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>xsLqi8Qn</t>
+          <t>W5K2x9ag</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>X8hD6wmD</t>
+          <t>J5aCXCk4</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
-          <t>cEGG6XlL</t>
+          <t>7duZtbV5</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>8k3blW7V</t>
+          <t>2swsD0Fp</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>IdxVU1sX</t>
+          <t>pWSUvj13</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>gAsNG4VL</t>
+          <t>DsFj1Ncd</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>kKuZBGg6</t>
+          <t>5v9V6tI3</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ymmqnryO</t>
+          <t>2sOZGqDi</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DDXkOA2Y</t>
+          <t>FjTJR67r</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>JD2JyChW</t>
+          <t>TNY7esLx</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>WlcyvLyU</t>
+          <t>Vf5g4O34</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>jLxFhudk</t>
+          <t>uo2DN6oH</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
-          <t>TFrOPp82</t>
+          <t>2W8t0Q9n</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RIkC56Ne</t>
+          <t>2NY8y6Tf</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>huSxiGgq</t>
+          <t>FGfuP077</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>i759KHQ2</t>
+          <t>SyS5tqwC</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
-          <t>vWm7FfK7</t>
+          <t>YFL2sDCj</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>J2fRhQON</t>
+          <t>cPKC7uvy</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>qvmqg6zF</t>
+          <t>pRzKb3ly</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>95pCfVoD</t>
+          <t>GfmD7CI2</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>c8G3AFMG</t>
+          <t>05ZmYAoT</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
-          <t>n4DBzcdO</t>
+          <t>WELwO0MM</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>3fJfpoec</t>
+          <t>7FtzSvab</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
-          <t>qyH1vRjI</t>
+          <t>ZeiG2ZBP</t>
         </is>
       </c>
     </row>
